--- a/documents/goals/18Q3/Goals_FY18_Q3_ShanShichao_Draft.xlsx
+++ b/documents/goals/18Q3/Goals_FY18_Q3_ShanShichao_Draft.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shchshan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shchshan\Desktop\telanav_diary\documents\goals\18Q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -875,56 +875,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1311,13 +1311,13 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="3"/>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
     </row>
     <row r="2" spans="1:22" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1338,13 +1338,13 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -1358,20 +1358,20 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="3"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -1390,11 +1390,11 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
@@ -1407,19 +1407,19 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
     </row>
     <row r="6" spans="1:22" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48"/>
@@ -1432,21 +1432,21 @@
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92" t="s">
+      <c r="L6" s="89"/>
+      <c r="M6" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="92"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48"/>
@@ -1473,11 +1473,11 @@
       </c>
       <c r="O7" s="67"/>
       <c r="P7" s="65"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
     </row>
     <row r="8" spans="1:22" s="12" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
@@ -1510,11 +1510,11 @@
       </c>
       <c r="O8" s="53"/>
       <c r="P8" s="52"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
@@ -1543,12 +1543,12 @@
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="42"/>
@@ -1566,14 +1566,14 @@
     </row>
     <row r="11" spans="1:22" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
@@ -1965,12 +1965,12 @@
     </row>
     <row r="26" spans="1:22" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
@@ -2223,17 +2223,17 @@
     </row>
     <row r="37" spans="1:22" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -2262,15 +2262,15 @@
     <row r="39" spans="1:22" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="79"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="61"/>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2486,15 +2486,15 @@
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="60"/>
-      <c r="C48" s="79" t="s">
+      <c r="C48" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="79"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="61"/>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="79"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
       <c r="J48" s="16"/>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="78" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="7">
@@ -2654,16 +2654,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="79" t="s">
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="79"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="57" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="81"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="59" t="s">
         <v>29</v>
       </c>
@@ -2765,15 +2765,15 @@
     <row r="62" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="60"/>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="79"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="61"/>
-      <c r="F62" s="79" t="s">
+      <c r="F62" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="79"/>
+      <c r="G62" s="90"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
@@ -3230,6 +3230,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B56:E57"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
@@ -3239,15 +3248,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="K5:P5"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B56:E57"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
